--- a/4.SUBMIT_PLACE/4.3 KHOI_NGUYEN/TEST/BSS_TestCases_Release3_V3.1.xlsx
+++ b/4.SUBMIT_PLACE/4.3 KHOI_NGUYEN/TEST/BSS_TestCases_Release3_V3.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="4455" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="4455" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="189">
   <si>
     <t>FUNCTIONAL TEST CASES for &lt;VanLang Admission Project&gt;</t>
   </si>
@@ -799,9 +799,6 @@
   </si>
   <si>
     <t>Total "Fail" Test Cases Open</t>
-  </si>
-  <si>
-    <t>Total "Fail" Test Cases Closed</t>
   </si>
   <si>
     <t>Final priority of testcase</t>
@@ -1979,9 +1976,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1992,6 +1986,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2041,7 +2038,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2049,6 +2061,60 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2080,65 +2146,11 @@
     <xf numFmtId="15" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2149,6 +2161,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2157,27 +2175,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2714,9 +2711,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$2:$A$7</c:f>
+              <c:f>Summary!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Total Number of Test Cases</c:v>
                 </c:pt>
@@ -2730,20 +2727,17 @@
                   <c:v>Total "Fail" Test Cases</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Total "Fail" Test Cases Open</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Total "Fail" Test Cases Closed</c:v>
+                  <c:v>Total Test Cases Closed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$M$2:$M$7</c:f>
+              <c:f>Summary!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -2757,9 +2751,6 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2908,12 +2899,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -2927,10 +2918,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2940,13 +2928,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$B$2:$B$7</c15:sqref>
+                          <c15:sqref>Summary!$B$2:$B$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3079,12 +3067,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -3098,10 +3086,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3111,13 +3096,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$C$2:$C$7</c15:sqref>
+                          <c15:sqref>Summary!$C$2:$C$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3250,12 +3235,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -3269,10 +3254,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3282,13 +3264,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$D$2:$D$7</c15:sqref>
+                          <c15:sqref>Summary!$D$2:$D$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3421,12 +3403,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -3440,10 +3422,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3453,13 +3432,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$E$2:$E$7</c15:sqref>
+                          <c15:sqref>Summary!$E$2:$E$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3592,12 +3571,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -3611,10 +3590,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3624,13 +3600,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$F$2:$F$7</c15:sqref>
+                          <c15:sqref>Summary!$F$2:$F$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3763,12 +3739,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -3782,10 +3758,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3795,13 +3768,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$G$2:$G$7</c15:sqref>
+                          <c15:sqref>Summary!$G$2:$G$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3934,12 +3907,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -3953,10 +3926,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3966,13 +3936,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$H$2:$H$7</c15:sqref>
+                          <c15:sqref>Summary!$H$2:$H$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4105,12 +4075,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -4124,10 +4094,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4137,13 +4104,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$I$2:$I$7</c15:sqref>
+                          <c15:sqref>Summary!$I$2:$I$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4276,12 +4243,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -4295,10 +4262,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4308,13 +4272,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$J$2:$J$7</c15:sqref>
+                          <c15:sqref>Summary!$J$2:$J$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4447,12 +4411,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -4466,10 +4430,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4479,13 +4440,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$K$2:$K$7</c15:sqref>
+                          <c15:sqref>Summary!$K$2:$K$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4618,12 +4579,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -4637,10 +4598,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4650,13 +4608,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$L$2:$L$7</c15:sqref>
+                          <c15:sqref>Summary!$L$2:$L$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4789,12 +4747,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -4808,10 +4766,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4821,13 +4776,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$N$2:$N$7</c15:sqref>
+                          <c15:sqref>Summary!$N$2:$N$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4960,12 +4915,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -4979,10 +4934,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4992,13 +4944,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$O$2:$O$7</c15:sqref>
+                          <c15:sqref>Summary!$O$2:$O$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5131,12 +5083,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -5150,10 +5102,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5163,13 +5112,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$P$2:$P$7</c15:sqref>
+                          <c15:sqref>Summary!$P$2:$P$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5302,12 +5251,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$2:$A$7</c15:sqref>
+                          <c15:sqref>Summary!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>Total Number of Test Cases</c:v>
                       </c:pt>
@@ -5321,10 +5270,7 @@
                         <c:v>Total "Fail" Test Cases</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Total "Fail" Test Cases Open</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Total "Fail" Test Cases Closed</c:v>
+                        <c:v>Total Test Cases Closed</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5334,13 +5280,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$Q$2:$Q$7</c15:sqref>
+                          <c15:sqref>Summary!$Q$2:$Q$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5654,7 +5600,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$18:$A$24</c:f>
+              <c:f>Summary!$A$17:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5683,7 +5629,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$M$18:$M$24</c:f>
+              <c:f>Summary!$M$17:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5840,7 +5786,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5875,7 +5821,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$B$18:$B$24</c15:sqref>
+                          <c15:sqref>Summary!$B$17:$B$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5976,7 +5922,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -5997,10 +5943,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6032,10 +5978,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$C$18:$C$24</c15:sqref>
+                          <c15:sqref>Summary!$C$17:$C$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6045,7 +5991,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -6136,7 +6082,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6157,10 +6103,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6192,10 +6138,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$D$18:$D$24</c15:sqref>
+                          <c15:sqref>Summary!$D$17:$D$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6205,7 +6151,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -6296,7 +6242,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6317,10 +6263,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6352,10 +6298,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$E$18:$E$24</c15:sqref>
+                          <c15:sqref>Summary!$E$17:$E$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6365,7 +6311,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -6456,7 +6402,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6477,10 +6423,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6512,10 +6458,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$F$18:$F$24</c15:sqref>
+                          <c15:sqref>Summary!$F$17:$F$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6525,7 +6471,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -6616,7 +6562,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6637,10 +6583,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6672,10 +6618,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$G$18:$G$24</c15:sqref>
+                          <c15:sqref>Summary!$G$17:$G$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6685,7 +6631,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -6776,7 +6722,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6797,10 +6743,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6832,10 +6778,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$H$18:$H$24</c15:sqref>
+                          <c15:sqref>Summary!$H$17:$H$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6845,7 +6791,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -6936,7 +6882,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6957,10 +6903,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6992,10 +6938,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$I$18:$I$24</c15:sqref>
+                          <c15:sqref>Summary!$I$17:$I$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7005,7 +6951,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -7096,7 +7042,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7117,10 +7063,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7152,10 +7098,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$J$18:$J$24</c15:sqref>
+                          <c15:sqref>Summary!$J$17:$J$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7165,7 +7111,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -7256,7 +7202,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7277,10 +7223,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7312,10 +7258,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$K$18:$K$24</c15:sqref>
+                          <c15:sqref>Summary!$K$17:$K$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7325,7 +7271,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -7416,7 +7362,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7437,10 +7383,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7472,10 +7418,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$L$18:$L$24</c15:sqref>
+                          <c15:sqref>Summary!$L$17:$L$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7485,7 +7431,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -7576,7 +7522,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7597,10 +7543,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7632,10 +7578,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$N$18:$N$24</c15:sqref>
+                          <c15:sqref>Summary!$N$17:$N$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7645,7 +7591,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -7736,7 +7682,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7757,10 +7703,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7792,10 +7738,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$O$18:$O$24</c15:sqref>
+                          <c15:sqref>Summary!$O$17:$O$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7805,7 +7751,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -7896,7 +7842,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7917,10 +7863,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7952,10 +7898,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$P$18:$P$24</c15:sqref>
+                          <c15:sqref>Summary!$P$17:$P$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7965,7 +7911,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -8056,7 +8002,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -8077,10 +8023,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$18:$A$24</c15:sqref>
+                          <c15:sqref>Summary!$A$17:$A$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8112,10 +8058,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$Q$18:$Q$24</c15:sqref>
+                          <c15:sqref>Summary!$Q$17:$Q$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8125,7 +8071,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-C115-4857-A724-DC566AC3C2EB}"/>
                   </c:ext>
@@ -8467,7 +8413,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$39:$A$45</c:f>
+              <c:f>Summary!$A$38:$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -8496,7 +8442,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$M$39:$M$45</c:f>
+              <c:f>Summary!$M$38:$M$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8653,7 +8599,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8688,7 +8634,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$B$39:$B$45</c15:sqref>
+                          <c15:sqref>Summary!$B$38:$B$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8789,7 +8735,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -8810,10 +8756,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8845,10 +8791,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$C$39:$C$45</c15:sqref>
+                          <c15:sqref>Summary!$C$38:$C$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8858,7 +8804,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -8949,7 +8895,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -8970,10 +8916,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9005,10 +8951,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$D$39:$D$45</c15:sqref>
+                          <c15:sqref>Summary!$D$38:$D$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9018,7 +8964,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -9109,7 +9055,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -9130,10 +9076,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9165,10 +9111,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$E$39:$E$45</c15:sqref>
+                          <c15:sqref>Summary!$E$38:$E$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9178,7 +9124,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -9269,7 +9215,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -9290,10 +9236,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9325,10 +9271,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$F$39:$F$45</c15:sqref>
+                          <c15:sqref>Summary!$F$38:$F$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9338,7 +9284,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -9429,7 +9375,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -9450,10 +9396,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9485,10 +9431,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$G$39:$G$45</c15:sqref>
+                          <c15:sqref>Summary!$G$38:$G$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9498,7 +9444,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -9589,7 +9535,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -9610,10 +9556,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9645,10 +9591,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$H$39:$H$45</c15:sqref>
+                          <c15:sqref>Summary!$H$38:$H$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9658,7 +9604,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -9749,7 +9695,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -9770,10 +9716,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9805,10 +9751,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$I$39:$I$45</c15:sqref>
+                          <c15:sqref>Summary!$I$38:$I$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9818,7 +9764,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -9909,7 +9855,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -9930,10 +9876,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9965,10 +9911,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$J$39:$J$45</c15:sqref>
+                          <c15:sqref>Summary!$J$38:$J$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9978,7 +9924,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -10069,7 +10015,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -10090,10 +10036,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10125,10 +10071,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$K$39:$K$45</c15:sqref>
+                          <c15:sqref>Summary!$K$38:$K$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10138,7 +10084,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -10229,7 +10175,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -10250,10 +10196,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10285,10 +10231,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$L$39:$L$45</c15:sqref>
+                          <c15:sqref>Summary!$L$38:$L$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10298,7 +10244,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -10389,7 +10335,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -10410,10 +10356,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10445,10 +10391,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$N$39:$N$45</c15:sqref>
+                          <c15:sqref>Summary!$N$38:$N$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10458,7 +10404,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -10549,7 +10495,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -10570,10 +10516,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10605,10 +10551,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$O$39:$O$45</c15:sqref>
+                          <c15:sqref>Summary!$O$38:$O$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10618,7 +10564,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -10709,7 +10655,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -10730,10 +10676,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10765,10 +10711,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$P$39:$P$45</c15:sqref>
+                          <c15:sqref>Summary!$P$38:$P$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10778,7 +10724,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -10869,7 +10815,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -10890,10 +10836,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$A$39:$A$45</c15:sqref>
+                          <c15:sqref>Summary!$A$38:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10925,10 +10871,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Summary!$Q$39:$Q$45</c15:sqref>
+                          <c15:sqref>Summary!$Q$38:$Q$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10938,7 +10884,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-E4BA-4AD5-A144-165AB55AD953}"/>
                   </c:ext>
@@ -13014,6 +12960,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BCCC-4AB0-AA16-C94AA6DAEF6A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -13033,6 +12984,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BCCC-4AB0-AA16-C94AA6DAEF6A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -13052,6 +13008,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BCCC-4AB0-AA16-C94AA6DAEF6A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -13374,6 +13335,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EE4A-4110-8BBE-26A098297C71}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -13393,6 +13359,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EE4A-4110-8BBE-26A098297C71}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -20796,7 +20767,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20828,13 +20799,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20864,13 +20835,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21241,24 +21212,24 @@
     </row>
     <row r="9" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>134</v>
@@ -21269,10 +21240,10 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>111</v>
@@ -21283,10 +21254,10 @@
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>134</v>
@@ -21330,7 +21301,7 @@
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
@@ -21354,14 +21325,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
       <c r="G1" s="46"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
@@ -21381,14 +21352,14 @@
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
       <c r="G2" s="46"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
@@ -21408,14 +21379,14 @@
       <c r="W2" s="48"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="167" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
       <c r="G3" s="46"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -21435,14 +21406,14 @@
       <c r="W3" s="48"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
       <c r="G4" s="46"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
@@ -21462,14 +21433,14 @@
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
@@ -21489,14 +21460,14 @@
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
@@ -21516,14 +21487,14 @@
       <c r="W6" s="48"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="46"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -21543,14 +21514,14 @@
       <c r="W7" s="48"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
@@ -21570,14 +21541,14 @@
       <c r="W8" s="48"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
       <c r="G9" s="46"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -21597,14 +21568,14 @@
       <c r="W9" s="48"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
       <c r="G10" s="46"/>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -21624,22 +21595,22 @@
       <c r="W10" s="48"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
       <c r="E11" s="52">
         <v>3</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="148">
+      <c r="G11" s="171">
         <v>3</v>
       </c>
-      <c r="H11" s="149"/>
+      <c r="H11" s="172"/>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
       <c r="K11" s="51"/>
@@ -21657,22 +21628,22 @@
       <c r="W11" s="51"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
       <c r="E12" s="52">
         <v>0</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="152">
+      <c r="G12" s="175">
         <v>43013</v>
       </c>
-      <c r="H12" s="149"/>
+      <c r="H12" s="172"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
@@ -21690,12 +21661,12 @@
       <c r="W12" s="51"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="52">
         <v>3</v>
       </c>
@@ -21719,10 +21690,10 @@
       <c r="W13" s="51"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="150"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="52"/>
       <c r="F14" s="53"/>
       <c r="G14" s="54"/>
@@ -21795,19 +21766,19 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="162">
+      <c r="A17" s="161">
         <v>1</v>
       </c>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="170" t="s">
+      <c r="D17" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="166" t="s">
         <v>82</v>
       </c>
       <c r="F17" s="29">
@@ -21820,28 +21791,28 @@
         <v>84</v>
       </c>
       <c r="I17" s="30"/>
-      <c r="J17" s="155" t="s">
+      <c r="J17" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="K17" s="157" t="s">
+      <c r="K17" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="172">
+      <c r="L17" s="178">
         <v>43013</v>
       </c>
-      <c r="M17" s="155" t="s">
+      <c r="M17" s="164" t="s">
         <v>111</v>
       </c>
       <c r="N17" s="159" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
       <c r="F18" s="36">
         <v>2</v>
       </c>
@@ -21852,18 +21823,18 @@
         <v>86</v>
       </c>
       <c r="I18" s="22"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
       <c r="N18" s="159"/>
     </row>
     <row r="19" spans="1:14" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="162"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="171"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="166"/>
       <c r="F19" s="36">
         <v>3</v>
       </c>
@@ -21872,426 +21843,426 @@
         <v>87</v>
       </c>
       <c r="I19" s="22"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
       <c r="N19" s="159"/>
     </row>
     <row r="20" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
       <c r="F20" s="31"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="155" t="s">
+      <c r="J20" s="164" t="s">
         <v>127</v>
       </c>
       <c r="K20" s="43"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="158"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="149"/>
     </row>
     <row r="21" spans="1:14" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
+      <c r="A21" s="154"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
-      <c r="J21" s="155"/>
+      <c r="J21" s="164"/>
       <c r="K21" s="44"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="160"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="150"/>
     </row>
     <row r="22" spans="1:14" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="155"/>
+      <c r="J22" s="164"/>
       <c r="K22" s="43"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
     </row>
     <row r="23" spans="1:14" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
-      <c r="J23" s="155" t="s">
+      <c r="J23" s="164" t="s">
         <v>127</v>
       </c>
       <c r="K23" s="44"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
     </row>
     <row r="24" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="155"/>
+      <c r="J24" s="164"/>
       <c r="K24" s="43"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="158"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="149"/>
     </row>
     <row r="25" spans="1:14" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="155"/>
+      <c r="J25" s="164"/>
       <c r="K25" s="44"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="160"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="150"/>
     </row>
     <row r="26" spans="1:14" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
       <c r="F26" s="31"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="155" t="s">
+      <c r="J26" s="164" t="s">
         <v>127</v>
       </c>
       <c r="K26" s="43"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
     </row>
     <row r="27" spans="1:14" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="163"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="155"/>
+      <c r="J27" s="164"/>
       <c r="K27" s="44"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
     </row>
     <row r="28" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
       <c r="F28" s="31"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="155"/>
+      <c r="J28" s="164"/>
       <c r="K28" s="43"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="158"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="149"/>
     </row>
     <row r="29" spans="1:14" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="163"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
+      <c r="A29" s="154"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
       <c r="F29" s="33"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
-      <c r="J29" s="155" t="s">
+      <c r="J29" s="164" t="s">
         <v>127</v>
       </c>
       <c r="K29" s="44"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="160"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="150"/>
     </row>
     <row r="30" spans="1:14" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
-      <c r="J30" s="155"/>
+      <c r="J30" s="164"/>
       <c r="K30" s="43"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="151"/>
     </row>
     <row r="31" spans="1:14" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="163"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
       <c r="F31" s="33"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="155"/>
+      <c r="J31" s="164"/>
       <c r="K31" s="44"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
     </row>
     <row r="32" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
+      <c r="A32" s="153"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
       <c r="F32" s="31"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
-      <c r="J32" s="155" t="s">
+      <c r="J32" s="164" t="s">
         <v>127</v>
       </c>
       <c r="K32" s="43"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="158"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="149"/>
     </row>
     <row r="33" spans="1:14" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
       <c r="F33" s="33"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="155"/>
+      <c r="J33" s="164"/>
       <c r="K33" s="44"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="160"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="150"/>
     </row>
     <row r="34" spans="1:14" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="155"/>
+      <c r="J34" s="164"/>
       <c r="K34" s="43"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="157"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="151"/>
     </row>
     <row r="35" spans="1:14" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="163"/>
-      <c r="B35" s="166"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="155" t="s">
+      <c r="J35" s="164" t="s">
         <v>127</v>
       </c>
       <c r="K35" s="44"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
     </row>
     <row r="36" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="161"/>
-      <c r="B36" s="164"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="155"/>
+      <c r="J36" s="164"/>
       <c r="K36" s="43"/>
-      <c r="L36" s="157"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="158"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="149"/>
     </row>
     <row r="37" spans="1:14" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="163"/>
-      <c r="B37" s="166"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
+      <c r="A37" s="154"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
       <c r="F37" s="33"/>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
-      <c r="J37" s="155"/>
+      <c r="J37" s="164"/>
       <c r="K37" s="44"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="160"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="150"/>
     </row>
     <row r="38" spans="1:14" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="161"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
-      <c r="J38" s="155" t="s">
+      <c r="J38" s="164" t="s">
         <v>127</v>
       </c>
       <c r="K38" s="43"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="157"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
     </row>
     <row r="39" spans="1:14" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="163"/>
-      <c r="B39" s="166"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="169"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
       <c r="F39" s="33"/>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
-      <c r="J39" s="155"/>
+      <c r="J39" s="164"/>
       <c r="K39" s="44"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="156"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
     </row>
     <row r="40" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="161"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
-      <c r="J40" s="155"/>
+      <c r="J40" s="164"/>
       <c r="K40" s="43"/>
-      <c r="L40" s="157"/>
-      <c r="M40" s="157"/>
-      <c r="N40" s="158"/>
+      <c r="L40" s="151"/>
+      <c r="M40" s="151"/>
+      <c r="N40" s="149"/>
     </row>
     <row r="41" spans="1:14" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="163"/>
-      <c r="B41" s="166"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
       <c r="F41" s="33"/>
       <c r="G41" s="34"/>
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
-      <c r="J41" s="155" t="s">
+      <c r="J41" s="164" t="s">
         <v>127</v>
       </c>
       <c r="K41" s="44"/>
-      <c r="L41" s="156"/>
-      <c r="M41" s="156"/>
-      <c r="N41" s="160"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="152"/>
+      <c r="N41" s="150"/>
     </row>
     <row r="42" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="161"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="167"/>
+      <c r="A42" s="153"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
       <c r="F42" s="31"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
-      <c r="J42" s="155"/>
+      <c r="J42" s="164"/>
       <c r="K42" s="43"/>
-      <c r="L42" s="157"/>
-      <c r="M42" s="157"/>
-      <c r="N42" s="158"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="149"/>
     </row>
     <row r="43" spans="1:14" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="162"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="168"/>
+      <c r="A43" s="161"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
       <c r="F43" s="59"/>
       <c r="G43" s="60"/>
       <c r="H43" s="60"/>
       <c r="I43" s="60"/>
-      <c r="J43" s="155"/>
+      <c r="J43" s="164"/>
       <c r="K43" s="55"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
       <c r="N43" s="159"/>
     </row>
     <row r="44" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="161">
+      <c r="A44" s="153">
         <v>2</v>
       </c>
-      <c r="B44" s="164" t="s">
+      <c r="B44" s="155" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="167" t="s">
+      <c r="C44" s="157" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="170" t="s">
+      <c r="D44" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="170" t="s">
+      <c r="E44" s="165" t="s">
         <v>90</v>
       </c>
       <c r="F44" s="31">
@@ -22304,28 +22275,28 @@
         <v>84</v>
       </c>
       <c r="I44" s="32"/>
-      <c r="J44" s="157" t="s">
+      <c r="J44" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="K44" s="157" t="s">
+      <c r="K44" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="L44" s="154">
+      <c r="L44" s="160">
         <v>43013</v>
       </c>
-      <c r="M44" s="157" t="s">
+      <c r="M44" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="N44" s="158" t="s">
-        <v>171</v>
+      <c r="N44" s="149" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="163"/>
-      <c r="B45" s="166"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="169"/>
+      <c r="A45" s="154"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="158"/>
       <c r="F45" s="33">
         <v>2</v>
       </c>
@@ -22336,26 +22307,26 @@
         <v>91</v>
       </c>
       <c r="I45" s="34"/>
-      <c r="J45" s="156"/>
-      <c r="K45" s="156"/>
-      <c r="L45" s="156"/>
-      <c r="M45" s="156"/>
-      <c r="N45" s="160"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="152"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="152"/>
+      <c r="N45" s="150"/>
     </row>
     <row r="46" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="161">
+      <c r="A46" s="153">
         <v>3</v>
       </c>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="167" t="s">
+      <c r="C46" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="170" t="s">
+      <c r="D46" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="170" t="s">
+      <c r="E46" s="165" t="s">
         <v>82</v>
       </c>
       <c r="F46" s="31">
@@ -22368,28 +22339,28 @@
         <v>84</v>
       </c>
       <c r="I46" s="32"/>
-      <c r="J46" s="157" t="s">
+      <c r="J46" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="K46" s="157" t="s">
+      <c r="K46" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="L46" s="154">
+      <c r="L46" s="160">
         <v>43013</v>
       </c>
-      <c r="M46" s="157" t="s">
+      <c r="M46" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="N46" s="158" t="s">
-        <v>171</v>
+      <c r="N46" s="149" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="163"/>
-      <c r="B47" s="166"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="173"/>
-      <c r="E47" s="169"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="158"/>
       <c r="F47" s="33">
         <v>2</v>
       </c>
@@ -22400,142 +22371,303 @@
         <v>35</v>
       </c>
       <c r="I47" s="34"/>
-      <c r="J47" s="156"/>
-      <c r="K47" s="156"/>
-      <c r="L47" s="156"/>
-      <c r="M47" s="156"/>
-      <c r="N47" s="160"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="152"/>
+      <c r="L47" s="152"/>
+      <c r="M47" s="152"/>
+      <c r="N47" s="150"/>
     </row>
     <row r="48" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="162"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
+      <c r="A48" s="161"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
       <c r="F48" s="29"/>
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
       <c r="J48" s="65"/>
       <c r="K48" s="55"/>
-      <c r="L48" s="155"/>
-      <c r="M48" s="155"/>
+      <c r="L48" s="164"/>
+      <c r="M48" s="164"/>
       <c r="N48" s="159"/>
     </row>
     <row r="49" spans="1:14" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="163"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="169"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
       <c r="F49" s="33"/>
       <c r="G49" s="34"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
       <c r="J49" s="66"/>
       <c r="K49" s="44"/>
-      <c r="L49" s="156"/>
-      <c r="M49" s="156"/>
-      <c r="N49" s="160"/>
+      <c r="L49" s="152"/>
+      <c r="M49" s="152"/>
+      <c r="N49" s="150"/>
     </row>
     <row r="50" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="161"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
+      <c r="A50" s="153"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="157"/>
       <c r="F50" s="31"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
-      <c r="J50" s="157"/>
+      <c r="J50" s="151"/>
       <c r="K50" s="43"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="157"/>
-      <c r="N50" s="158"/>
+      <c r="L50" s="151"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="149"/>
     </row>
     <row r="51" spans="1:14" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="163"/>
-      <c r="B51" s="166"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
-      <c r="E51" s="169"/>
+      <c r="A51" s="154"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="158"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
       <c r="F51" s="33"/>
       <c r="G51" s="34"/>
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
-      <c r="J51" s="156"/>
+      <c r="J51" s="152"/>
       <c r="K51" s="44"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="156"/>
-      <c r="N51" s="160"/>
+      <c r="L51" s="152"/>
+      <c r="M51" s="152"/>
+      <c r="N51" s="150"/>
     </row>
     <row r="52" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="161"/>
-      <c r="B52" s="164"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="167"/>
+      <c r="A52" s="153"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="157"/>
+      <c r="D52" s="157"/>
+      <c r="E52" s="157"/>
       <c r="F52" s="31"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
-      <c r="J52" s="157"/>
+      <c r="J52" s="151"/>
       <c r="K52" s="43"/>
-      <c r="L52" s="157"/>
-      <c r="M52" s="157"/>
-      <c r="N52" s="158"/>
+      <c r="L52" s="151"/>
+      <c r="M52" s="151"/>
+      <c r="N52" s="149"/>
     </row>
     <row r="53" spans="1:14" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="163"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
-      <c r="E53" s="169"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
       <c r="F53" s="33"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
-      <c r="J53" s="156"/>
+      <c r="J53" s="152"/>
       <c r="K53" s="44"/>
-      <c r="L53" s="156"/>
-      <c r="M53" s="156"/>
-      <c r="N53" s="160"/>
+      <c r="L53" s="152"/>
+      <c r="M53" s="152"/>
+      <c r="N53" s="150"/>
     </row>
     <row r="54" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="161"/>
-      <c r="B54" s="164"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
+      <c r="A54" s="153"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
       <c r="F54" s="31"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
-      <c r="J54" s="157"/>
+      <c r="J54" s="151"/>
       <c r="K54" s="43"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="158"/>
+      <c r="L54" s="151"/>
+      <c r="M54" s="151"/>
+      <c r="N54" s="149"/>
     </row>
     <row r="55" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="163"/>
-      <c r="B55" s="166"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="169"/>
+      <c r="A55" s="154"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="158"/>
       <c r="F55" s="33"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
       <c r="I55" s="34"/>
-      <c r="J55" s="156"/>
+      <c r="J55" s="152"/>
       <c r="K55" s="44"/>
-      <c r="L55" s="156"/>
-      <c r="M55" s="156"/>
-      <c r="N55" s="160"/>
+      <c r="L55" s="152"/>
+      <c r="M55" s="152"/>
+      <c r="N55" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="185">
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="G11:H11"/>
@@ -22560,167 +22692,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22730,8 +22701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22751,14 +22722,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
       <c r="G1" s="46"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
@@ -22778,14 +22749,14 @@
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
       <c r="G2" s="46"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
@@ -22805,14 +22776,14 @@
       <c r="W2" s="48"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="167" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
       <c r="G3" s="46"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -22832,14 +22803,14 @@
       <c r="W3" s="48"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
       <c r="G4" s="46"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
@@ -22859,14 +22830,14 @@
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
@@ -22886,14 +22857,14 @@
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
@@ -22913,14 +22884,14 @@
       <c r="W6" s="48"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="46"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -22940,14 +22911,14 @@
       <c r="W7" s="48"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
@@ -22967,14 +22938,14 @@
       <c r="W8" s="48"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
       <c r="G9" s="46"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -22994,14 +22965,14 @@
       <c r="W9" s="48"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
       <c r="G10" s="46"/>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -23021,22 +22992,22 @@
       <c r="W10" s="48"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
       <c r="E11" s="52">
         <v>2</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="148">
+      <c r="G11" s="171">
         <v>2</v>
       </c>
-      <c r="H11" s="149"/>
+      <c r="H11" s="172"/>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
       <c r="K11" s="51"/>
@@ -23054,22 +23025,22 @@
       <c r="W11" s="51"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
       <c r="E12" s="52">
         <v>0</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="148" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" s="149"/>
+      <c r="G12" s="171" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="172"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
@@ -23087,12 +23058,12 @@
       <c r="W12" s="51"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="52">
         <v>2</v>
       </c>
@@ -23116,10 +23087,10 @@
       <c r="W13" s="51"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="150"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="52"/>
       <c r="F14" s="53"/>
       <c r="G14" s="54"/>
@@ -23232,324 +23203,324 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="180"/>
-      <c r="B18" s="181"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
+      <c r="A18" s="182"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="155"/>
+      <c r="J18" s="164"/>
       <c r="K18" s="45"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
       <c r="N18" s="159"/>
     </row>
     <row r="19" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="174"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
       <c r="F19" s="36"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="156"/>
+      <c r="J19" s="152"/>
       <c r="K19" s="44"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="160"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="150"/>
     </row>
     <row r="20" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="174"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
       <c r="F20" s="36"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="157"/>
+      <c r="J20" s="151"/>
       <c r="K20" s="43"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
       <c r="F21" s="36"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="34"/>
-      <c r="J21" s="156"/>
+      <c r="J21" s="152"/>
       <c r="K21" s="44"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="174"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
       <c r="F22" s="36"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="157"/>
+      <c r="J22" s="151"/>
       <c r="K22" s="43"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="158"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="149"/>
     </row>
     <row r="23" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="174"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
       <c r="F23" s="36"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="34"/>
-      <c r="J23" s="156"/>
+      <c r="J23" s="152"/>
       <c r="K23" s="44"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="160"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="150"/>
     </row>
     <row r="24" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
       <c r="F24" s="36"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="157"/>
+      <c r="J24" s="151"/>
       <c r="K24" s="43"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
     </row>
     <row r="25" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="174"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
+      <c r="A25" s="179"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
       <c r="F25" s="36"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="156"/>
+      <c r="J25" s="152"/>
       <c r="K25" s="44"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="152"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="174"/>
-      <c r="B26" s="175"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
       <c r="F26" s="36"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="157"/>
+      <c r="J26" s="151"/>
       <c r="K26" s="43"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="158"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="149"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="174"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
       <c r="F27" s="36"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="156"/>
+      <c r="J27" s="152"/>
       <c r="K27" s="44"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="160"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="150"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="174"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
       <c r="F28" s="36"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="157"/>
+      <c r="J28" s="151"/>
       <c r="K28" s="43"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="157"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
     </row>
     <row r="29" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="174"/>
-      <c r="B29" s="175"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
       <c r="F29" s="36"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="34"/>
-      <c r="J29" s="156"/>
+      <c r="J29" s="152"/>
       <c r="K29" s="44"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
     </row>
     <row r="30" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="174"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
       <c r="F30" s="36"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="32"/>
-      <c r="J30" s="157"/>
+      <c r="J30" s="151"/>
       <c r="K30" s="43"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="158"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="149"/>
     </row>
     <row r="31" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="174"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
+      <c r="A31" s="179"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
       <c r="F31" s="36"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="156"/>
+      <c r="J31" s="152"/>
       <c r="K31" s="44"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="160"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="150"/>
     </row>
     <row r="32" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="174"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
       <c r="F32" s="36"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="32"/>
-      <c r="J32" s="157"/>
+      <c r="J32" s="151"/>
       <c r="K32" s="43"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="157"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="151"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="174"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
       <c r="F33" s="36"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="156"/>
+      <c r="J33" s="152"/>
       <c r="K33" s="44"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="156"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
     </row>
     <row r="34" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="174"/>
-      <c r="B34" s="175"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
+      <c r="A34" s="179"/>
+      <c r="B34" s="180"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
       <c r="F34" s="36"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="157"/>
+      <c r="J34" s="151"/>
       <c r="K34" s="43"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="158"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="149"/>
     </row>
     <row r="35" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="174"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="180"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
       <c r="F35" s="36"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="156"/>
+      <c r="J35" s="152"/>
       <c r="K35" s="44"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="160"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="150"/>
     </row>
     <row r="36" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="174"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="180"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181"/>
       <c r="F36" s="36"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="157"/>
+      <c r="J36" s="151"/>
       <c r="K36" s="43"/>
-      <c r="L36" s="157"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="157"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="151"/>
     </row>
     <row r="37" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="177"/>
-      <c r="B37" s="178"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="179"/>
+      <c r="A37" s="184"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
       <c r="F37" s="59"/>
       <c r="G37" s="60"/>
       <c r="H37" s="60"/>
       <c r="I37" s="60"/>
-      <c r="J37" s="155"/>
+      <c r="J37" s="164"/>
       <c r="K37" s="45"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
+      <c r="L37" s="164"/>
+      <c r="M37" s="164"/>
+      <c r="N37" s="164"/>
     </row>
     <row r="38" spans="1:14" s="73" customFormat="1" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="67">
@@ -23592,135 +23563,255 @@
       </c>
     </row>
     <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="162"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="155"/>
+      <c r="J39" s="164"/>
       <c r="K39" s="45"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
+      <c r="L39" s="164"/>
+      <c r="M39" s="164"/>
       <c r="N39" s="159"/>
     </row>
     <row r="40" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="162"/>
-      <c r="B40" s="165"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="171"/>
+      <c r="A40" s="161"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="166"/>
       <c r="F40" s="36"/>
       <c r="G40" s="34"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="155"/>
+      <c r="J40" s="164"/>
       <c r="K40" s="45"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155"/>
+      <c r="L40" s="164"/>
+      <c r="M40" s="164"/>
       <c r="N40" s="159"/>
     </row>
     <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="161"/>
-      <c r="B41" s="164"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="167"/>
+      <c r="A41" s="153"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
-      <c r="J41" s="157"/>
+      <c r="J41" s="151"/>
       <c r="K41" s="43"/>
-      <c r="L41" s="157"/>
-      <c r="M41" s="157"/>
-      <c r="N41" s="158"/>
+      <c r="L41" s="151"/>
+      <c r="M41" s="151"/>
+      <c r="N41" s="149"/>
     </row>
     <row r="42" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="163"/>
-      <c r="B42" s="166"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="169"/>
+      <c r="A42" s="154"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
       <c r="F42" s="33"/>
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="156"/>
+      <c r="J42" s="152"/>
       <c r="K42" s="44"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
-      <c r="N42" s="160"/>
+      <c r="L42" s="152"/>
+      <c r="M42" s="152"/>
+      <c r="N42" s="150"/>
     </row>
     <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="161"/>
-      <c r="B43" s="164"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="167"/>
+      <c r="A43" s="153"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
       <c r="F43" s="31"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
-      <c r="J43" s="157"/>
+      <c r="J43" s="151"/>
       <c r="K43" s="43"/>
-      <c r="L43" s="157"/>
-      <c r="M43" s="157"/>
-      <c r="N43" s="158"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="149"/>
     </row>
     <row r="44" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="163"/>
-      <c r="B44" s="166"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="158"/>
       <c r="F44" s="33"/>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
-      <c r="J44" s="156"/>
+      <c r="J44" s="152"/>
       <c r="K44" s="44"/>
-      <c r="L44" s="156"/>
-      <c r="M44" s="156"/>
-      <c r="N44" s="160"/>
+      <c r="L44" s="152"/>
+      <c r="M44" s="152"/>
+      <c r="N44" s="150"/>
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="161"/>
-      <c r="B45" s="164"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
+      <c r="A45" s="153"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
       <c r="F45" s="31"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
-      <c r="J45" s="157"/>
+      <c r="J45" s="151"/>
       <c r="K45" s="43"/>
-      <c r="L45" s="157"/>
-      <c r="M45" s="157"/>
-      <c r="N45" s="158"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="151"/>
+      <c r="N45" s="149"/>
     </row>
     <row r="46" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="163"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
-      <c r="E46" s="169"/>
+      <c r="A46" s="154"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
       <c r="F46" s="33"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
-      <c r="J46" s="156"/>
+      <c r="J46" s="152"/>
       <c r="K46" s="44"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
-      <c r="N46" s="160"/>
+      <c r="L46" s="152"/>
+      <c r="M46" s="152"/>
+      <c r="N46" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="G11:H11"/>
@@ -23743,126 +23834,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23912,59 +23883,59 @@
       <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="4" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
     </row>
     <row r="6" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
     </row>
     <row r="7" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
     </row>
     <row r="10" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -24042,7 +24013,7 @@
     </row>
     <row r="15" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="131"/>
-      <c r="C15" s="124"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="129"/>
       <c r="E15" s="14" t="s">
         <v>46</v>
@@ -24088,7 +24059,7 @@
     </row>
     <row r="18" spans="2:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B18" s="132"/>
-      <c r="C18" s="124"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="129"/>
       <c r="E18" s="41" t="s">
         <v>56</v>
@@ -24101,13 +24072,13 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="121">
+      <c r="C19" s="120">
         <v>1</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="121" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -24121,9 +24092,9 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="124"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="122"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="14" t="s">
         <v>100</v>
       </c>
@@ -24136,6 +24107,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="B19:B20"/>
@@ -24145,12 +24122,6 @@
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E12" location="'Testcase View Individual Point'!A17" display="TC-VLA-ViewIndiPoint-001"/>
@@ -24670,7 +24641,7 @@
     </row>
     <row r="3" spans="2:12" ht="83.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>36</v>
@@ -24705,7 +24676,7 @@
     </row>
     <row r="4" spans="2:12" ht="105.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="82" t="s">
         <v>36</v>
@@ -24714,10 +24685,10 @@
         <v>40</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" s="86" t="s">
         <v>130</v>
@@ -24740,7 +24711,7 @@
     </row>
     <row r="5" spans="2:12" ht="72.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="82" t="s">
         <v>36</v>
@@ -24749,10 +24720,10 @@
         <v>43</v>
       </c>
       <c r="E5" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="90" t="s">
         <v>160</v>
-      </c>
-      <c r="F5" s="90" t="s">
-        <v>161</v>
       </c>
       <c r="G5" s="86" t="s">
         <v>130</v>
@@ -24775,7 +24746,7 @@
     </row>
     <row r="6" spans="2:12" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="82" t="s">
         <v>36</v>
@@ -24810,19 +24781,19 @@
     </row>
     <row r="7" spans="2:12" ht="80.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="83" t="s">
         <v>162</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>163</v>
       </c>
       <c r="E7" s="88" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G7" s="86" t="s">
         <v>130</v>
@@ -24845,19 +24816,19 @@
     </row>
     <row r="8" spans="2:12" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="88" t="s">
         <v>89</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" s="86" t="s">
         <v>130</v>
@@ -24880,13 +24851,13 @@
     </row>
     <row r="9" spans="2:12" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="88" t="s">
         <v>93</v>
@@ -24915,10 +24886,10 @@
     </row>
     <row r="10" spans="2:12" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="83" t="s">
         <v>97</v>
@@ -24950,10 +24921,10 @@
     </row>
     <row r="11" spans="2:12" ht="105" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="83" t="s">
         <v>100</v>
@@ -25523,7 +25494,7 @@
     </row>
     <row r="3" spans="2:12" ht="83.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>36</v>
@@ -25558,7 +25529,7 @@
     </row>
     <row r="4" spans="2:12" ht="105.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="82" t="s">
         <v>36</v>
@@ -25567,10 +25538,10 @@
         <v>40</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" s="86" t="s">
         <v>130</v>
@@ -25593,7 +25564,7 @@
     </row>
     <row r="5" spans="2:12" ht="72.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="82" t="s">
         <v>36</v>
@@ -25602,10 +25573,10 @@
         <v>43</v>
       </c>
       <c r="E5" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="90" t="s">
         <v>160</v>
-      </c>
-      <c r="F5" s="90" t="s">
-        <v>161</v>
       </c>
       <c r="G5" s="86" t="s">
         <v>130</v>
@@ -25628,7 +25599,7 @@
     </row>
     <row r="6" spans="2:12" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="82" t="s">
         <v>36</v>
@@ -25663,22 +25634,22 @@
     </row>
     <row r="7" spans="2:12" ht="80.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="83" t="s">
         <v>162</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>163</v>
       </c>
       <c r="E7" s="88" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G7" s="86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H7" s="87" t="s">
         <v>128</v>
@@ -25698,22 +25669,22 @@
     </row>
     <row r="8" spans="2:12" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="88" t="s">
         <v>89</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" s="86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>128</v>
@@ -25733,13 +25704,13 @@
     </row>
     <row r="9" spans="2:12" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="88" t="s">
         <v>93</v>
@@ -25748,7 +25719,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="87" t="s">
         <v>128</v>
@@ -25768,10 +25739,10 @@
     </row>
     <row r="10" spans="2:12" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="83" t="s">
         <v>97</v>
@@ -25803,10 +25774,10 @@
     </row>
     <row r="11" spans="2:12" ht="105" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="83" t="s">
         <v>100</v>
@@ -26376,7 +26347,7 @@
     </row>
     <row r="3" spans="2:12" ht="83.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>36</v>
@@ -26411,7 +26382,7 @@
     </row>
     <row r="4" spans="2:12" ht="105.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="82" t="s">
         <v>36</v>
@@ -26420,10 +26391,10 @@
         <v>40</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" s="86" t="s">
         <v>130</v>
@@ -26446,7 +26417,7 @@
     </row>
     <row r="5" spans="2:12" ht="72.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="82" t="s">
         <v>36</v>
@@ -26455,10 +26426,10 @@
         <v>43</v>
       </c>
       <c r="E5" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="90" t="s">
         <v>160</v>
-      </c>
-      <c r="F5" s="90" t="s">
-        <v>161</v>
       </c>
       <c r="G5" s="86" t="s">
         <v>130</v>
@@ -26481,7 +26452,7 @@
     </row>
     <row r="6" spans="2:12" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="82" t="s">
         <v>36</v>
@@ -26516,22 +26487,22 @@
     </row>
     <row r="7" spans="2:12" ht="80.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="83" t="s">
         <v>162</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>163</v>
       </c>
       <c r="E7" s="88" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G7" s="86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H7" s="87" t="s">
         <v>128</v>
@@ -26551,22 +26522,22 @@
     </row>
     <row r="8" spans="2:12" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="88" t="s">
         <v>89</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" s="86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>128</v>
@@ -26586,13 +26557,13 @@
     </row>
     <row r="9" spans="2:12" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="88" t="s">
         <v>93</v>
@@ -26601,7 +26572,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="87" t="s">
         <v>128</v>
@@ -26621,10 +26592,10 @@
     </row>
     <row r="10" spans="2:12" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="83" t="s">
         <v>97</v>
@@ -26656,10 +26627,10 @@
     </row>
     <row r="11" spans="2:12" ht="105" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="83" t="s">
         <v>100</v>
@@ -26731,7 +26702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" workbookViewId="0">
+    <sheetView topLeftCell="E61" workbookViewId="0">
       <selection activeCell="P80" sqref="P80"/>
     </sheetView>
   </sheetViews>
@@ -26753,7 +26724,7 @@
     <row r="1" spans="1:20" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="97"/>
       <c r="B1" s="98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" s="99"/>
       <c r="D1" s="99"/>
@@ -26817,7 +26788,7 @@
       <c r="J3" s="103"/>
       <c r="K3" s="103"/>
       <c r="L3" s="133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M3" s="133"/>
       <c r="N3" s="103"/>
@@ -26895,7 +26866,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="102"/>
       <c r="B6" s="106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="106">
         <v>0</v>
@@ -27343,7 +27314,7 @@
     <row r="26" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A26" s="97"/>
       <c r="B26" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
@@ -27407,7 +27378,7 @@
       <c r="J28" s="103"/>
       <c r="K28" s="103"/>
       <c r="L28" s="134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M28" s="134"/>
       <c r="N28" s="103"/>
@@ -27466,7 +27437,7 @@
       <c r="F30" s="103"/>
       <c r="G30" s="103"/>
       <c r="H30" s="106" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I30" s="106">
         <v>0</v>
@@ -27491,7 +27462,7 @@
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="102"/>
       <c r="B31" s="106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="106">
         <v>0</v>
@@ -28048,7 +28019,7 @@
     <row r="56" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A56" s="97"/>
       <c r="B56" s="110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C56" s="99"/>
       <c r="D56" s="99"/>
@@ -28112,7 +28083,7 @@
       <c r="J58" s="103"/>
       <c r="K58" s="103"/>
       <c r="L58" s="134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M58" s="134"/>
       <c r="N58" s="103"/>
@@ -28170,7 +28141,7 @@
       <c r="F60" s="103"/>
       <c r="G60" s="103"/>
       <c r="H60" s="106" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I60" s="106">
         <v>0</v>
@@ -28194,7 +28165,7 @@
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="102"/>
       <c r="B61" s="106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61" s="106">
         <v>0</v>
@@ -28233,10 +28204,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28692,29 +28663,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="143"/>
+      <c r="A1" s="144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="148"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="139"/>
       <c r="C2" s="139"/>
@@ -28737,7 +28708,7 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="136"/>
       <c r="C3" s="136"/>
@@ -28760,7 +28731,7 @@
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="136"/>
       <c r="C4" s="136"/>
@@ -28783,7 +28754,7 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="136"/>
       <c r="C5" s="136"/>
@@ -28806,7 +28777,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="135" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="B6" s="136"/>
       <c r="C6" s="136"/>
@@ -28820,81 +28791,81 @@
       <c r="K6" s="136"/>
       <c r="L6" s="137"/>
       <c r="M6" s="138">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N6" s="139"/>
       <c r="O6" s="139"/>
       <c r="P6" s="139"/>
       <c r="Q6" s="140"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="135" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="138">
-        <v>0</v>
-      </c>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="140"/>
-    </row>
-    <row r="8" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="141" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="182"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="182"/>
-      <c r="Q17" s="183"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="138" t="s">
+    <row r="7" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="146"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="138" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="138">
+        <v>9</v>
+      </c>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="140"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="140"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="137"/>
       <c r="M18" s="138">
         <v>9</v>
       </c>
@@ -28919,7 +28890,7 @@
       <c r="K19" s="136"/>
       <c r="L19" s="137"/>
       <c r="M19" s="138">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N19" s="139"/>
       <c r="O19" s="139"/>
@@ -28942,7 +28913,7 @@
       <c r="K20" s="136"/>
       <c r="L20" s="137"/>
       <c r="M20" s="138">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N20" s="139"/>
       <c r="O20" s="139"/>
@@ -28950,22 +28921,22 @@
       <c r="Q20" s="140"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="135" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="137"/>
+      <c r="A21" s="141" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="143"/>
       <c r="M21" s="138">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N21" s="139"/>
       <c r="O21" s="139"/>
@@ -28973,22 +28944,22 @@
       <c r="Q21" s="140"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="184" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="185"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="185"/>
-      <c r="L22" s="186"/>
+      <c r="A22" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="137"/>
       <c r="M22" s="138">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N22" s="139"/>
       <c r="O22" s="139"/>
@@ -28997,7 +28968,7 @@
     </row>
     <row r="23" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="135" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B23" s="136"/>
       <c r="C23" s="136"/>
@@ -29011,74 +28982,74 @@
       <c r="K23" s="136"/>
       <c r="L23" s="137"/>
       <c r="M23" s="138">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N23" s="139"/>
       <c r="O23" s="139"/>
       <c r="P23" s="139"/>
       <c r="Q23" s="140"/>
     </row>
-    <row r="24" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="138">
-        <v>0</v>
-      </c>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="140"/>
-    </row>
-    <row r="25" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="141" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38" s="182"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="182"/>
-      <c r="K38" s="182"/>
-      <c r="L38" s="182"/>
-      <c r="M38" s="182"/>
-      <c r="N38" s="182"/>
-      <c r="O38" s="182"/>
-      <c r="P38" s="182"/>
-      <c r="Q38" s="183"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="138" t="s">
+    <row r="24" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="145"/>
+      <c r="O37" s="145"/>
+      <c r="P37" s="145"/>
+      <c r="Q37" s="146"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="138" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="140"/>
+      <c r="M38" s="138">
+        <v>9</v>
+      </c>
+      <c r="N38" s="139"/>
+      <c r="O38" s="139"/>
+      <c r="P38" s="139"/>
+      <c r="Q38" s="140"/>
+    </row>
+    <row r="39" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="139"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="140"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="137"/>
       <c r="M39" s="138">
         <v>9</v>
       </c>
@@ -29103,7 +29074,7 @@
       <c r="K40" s="136"/>
       <c r="L40" s="137"/>
       <c r="M40" s="138">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N40" s="139"/>
       <c r="O40" s="139"/>
@@ -29126,7 +29097,7 @@
       <c r="K41" s="136"/>
       <c r="L41" s="137"/>
       <c r="M41" s="138">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N41" s="139"/>
       <c r="O41" s="139"/>
@@ -29134,22 +29105,22 @@
       <c r="Q41" s="140"/>
     </row>
     <row r="42" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="135" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="137"/>
+      <c r="A42" s="141" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="142"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="143"/>
       <c r="M42" s="138">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N42" s="139"/>
       <c r="O42" s="139"/>
@@ -29157,22 +29128,22 @@
       <c r="Q42" s="140"/>
     </row>
     <row r="43" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="184" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="185"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="185"/>
-      <c r="K43" s="185"/>
-      <c r="L43" s="186"/>
+      <c r="A43" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="137"/>
       <c r="M43" s="138">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N43" s="139"/>
       <c r="O43" s="139"/>
@@ -29181,7 +29152,7 @@
     </row>
     <row r="44" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="135" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B44" s="136"/>
       <c r="C44" s="136"/>
@@ -29195,75 +29166,16 @@
       <c r="K44" s="136"/>
       <c r="L44" s="137"/>
       <c r="M44" s="138">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N44" s="139"/>
       <c r="O44" s="139"/>
       <c r="P44" s="139"/>
       <c r="Q44" s="140"/>
     </row>
-    <row r="45" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="137"/>
-      <c r="M45" s="138">
-        <v>0</v>
-      </c>
-      <c r="N45" s="139"/>
-      <c r="O45" s="139"/>
-      <c r="P45" s="139"/>
-      <c r="Q45" s="140"/>
-    </row>
-    <row r="46" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="M44:Q44"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="M45:Q45"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="M43:Q43"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:Q39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:Q40"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:Q7"/>
+  <mergeCells count="41">
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="A1:Q1"/>
@@ -29271,6 +29183,40 @@
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="M39:Q39"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="M43:Q43"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="M44:Q44"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:Q40"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="A37:Q37"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="A39:L39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29311,14 +29257,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
       <c r="G1" s="46"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
@@ -29337,14 +29283,14 @@
       <c r="V1" s="48"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
       <c r="G2" s="46"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
@@ -29363,14 +29309,14 @@
       <c r="V2" s="48"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="167" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
       <c r="G3" s="46"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -29389,14 +29335,14 @@
       <c r="V3" s="48"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
       <c r="G4" s="46"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
@@ -29415,14 +29361,14 @@
       <c r="V4" s="48"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
@@ -29441,14 +29387,14 @@
       <c r="V5" s="48"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
@@ -29467,14 +29413,14 @@
       <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="46"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -29493,14 +29439,14 @@
       <c r="V7" s="48"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
@@ -29519,14 +29465,14 @@
       <c r="V8" s="48"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
       <c r="G9" s="46"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -29545,14 +29491,14 @@
       <c r="V9" s="48"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
       <c r="G10" s="46"/>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -29571,22 +29517,22 @@
       <c r="V10" s="48"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
       <c r="E11" s="49">
         <v>4</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="148">
+      <c r="G11" s="171">
         <v>4</v>
       </c>
-      <c r="H11" s="149"/>
+      <c r="H11" s="172"/>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
       <c r="K11" s="51"/>
@@ -29603,22 +29549,22 @@
       <c r="V11" s="51"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
       <c r="E12" s="49">
         <v>0</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="152">
+      <c r="G12" s="175">
         <v>43013</v>
       </c>
-      <c r="H12" s="149"/>
+      <c r="H12" s="172"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
@@ -29635,12 +29581,12 @@
       <c r="V12" s="51"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="49">
         <v>4</v>
       </c>
@@ -29663,10 +29609,10 @@
       <c r="V13" s="51"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="150"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="49"/>
       <c r="F14" s="53"/>
       <c r="G14" s="54"/>
@@ -29738,19 +29684,19 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161">
+      <c r="A17" s="153">
         <v>1</v>
       </c>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="170" t="s">
+      <c r="D17" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="170" t="s">
+      <c r="E17" s="165" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="31">
@@ -29763,28 +29709,28 @@
         <v>65</v>
       </c>
       <c r="I17" s="32"/>
-      <c r="J17" s="157" t="s">
+      <c r="J17" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="K17" s="157" t="s">
+      <c r="K17" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="154">
+      <c r="L17" s="160">
         <v>43013</v>
       </c>
-      <c r="M17" s="157" t="s">
+      <c r="M17" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="N17" s="158" t="s">
+      <c r="N17" s="149" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
       <c r="F18" s="36">
         <v>2</v>
       </c>
@@ -29795,18 +29741,18 @@
         <v>67</v>
       </c>
       <c r="I18" s="22"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
       <c r="N18" s="159"/>
     </row>
     <row r="19" spans="1:14" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="163"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
       <c r="F19" s="33">
         <v>3</v>
       </c>
@@ -29815,442 +29761,442 @@
         <v>68</v>
       </c>
       <c r="I19" s="34"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="160"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="150"/>
     </row>
     <row r="20" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
       <c r="F20" s="31"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="157"/>
+      <c r="J20" s="151"/>
       <c r="K20" s="37"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="158"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="149"/>
     </row>
     <row r="21" spans="1:14" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
+      <c r="A21" s="154"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
-      <c r="J21" s="156"/>
+      <c r="J21" s="152"/>
       <c r="K21" s="38"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="160"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="150"/>
     </row>
     <row r="22" spans="1:14" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="157"/>
+      <c r="J22" s="151"/>
       <c r="K22" s="37"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
     </row>
     <row r="23" spans="1:14" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
-      <c r="J23" s="156"/>
+      <c r="J23" s="152"/>
       <c r="K23" s="38"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
     </row>
     <row r="24" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="157"/>
+      <c r="J24" s="151"/>
       <c r="K24" s="37"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="158"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="149"/>
     </row>
     <row r="25" spans="1:14" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="156"/>
+      <c r="J25" s="152"/>
       <c r="K25" s="38"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="160"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="150"/>
     </row>
     <row r="26" spans="1:14" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
       <c r="F26" s="31"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="157"/>
+      <c r="J26" s="151"/>
       <c r="K26" s="37"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
     </row>
     <row r="27" spans="1:14" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="163"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="156"/>
+      <c r="J27" s="152"/>
       <c r="K27" s="38"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
     </row>
     <row r="28" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
       <c r="F28" s="31"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="157"/>
+      <c r="J28" s="151"/>
       <c r="K28" s="37"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="158"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="149"/>
     </row>
     <row r="29" spans="1:14" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="163"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
+      <c r="A29" s="154"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
       <c r="F29" s="33"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
-      <c r="J29" s="156"/>
+      <c r="J29" s="152"/>
       <c r="K29" s="38"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="160"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="150"/>
     </row>
     <row r="30" spans="1:14" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
-      <c r="J30" s="157"/>
+      <c r="J30" s="151"/>
       <c r="K30" s="37"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="151"/>
     </row>
     <row r="31" spans="1:14" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="163"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
       <c r="F31" s="33"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="156"/>
+      <c r="J31" s="152"/>
       <c r="K31" s="38"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
     </row>
     <row r="32" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
+      <c r="A32" s="153"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
       <c r="F32" s="31"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
-      <c r="J32" s="157"/>
+      <c r="J32" s="151"/>
       <c r="K32" s="37"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="158"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="149"/>
     </row>
     <row r="33" spans="1:14" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
       <c r="F33" s="33"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="156"/>
+      <c r="J33" s="152"/>
       <c r="K33" s="38"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="160"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="150"/>
     </row>
     <row r="34" spans="1:14" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="157"/>
+      <c r="J34" s="151"/>
       <c r="K34" s="37"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="157"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="151"/>
     </row>
     <row r="35" spans="1:14" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="163"/>
-      <c r="B35" s="166"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="156"/>
+      <c r="J35" s="152"/>
       <c r="K35" s="38"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
     </row>
     <row r="36" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="161"/>
-      <c r="B36" s="164"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="157"/>
+      <c r="J36" s="151"/>
       <c r="K36" s="37"/>
-      <c r="L36" s="157"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="158"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="149"/>
     </row>
     <row r="37" spans="1:14" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="163"/>
-      <c r="B37" s="166"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
+      <c r="A37" s="154"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
       <c r="F37" s="33"/>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
-      <c r="J37" s="156"/>
+      <c r="J37" s="152"/>
       <c r="K37" s="38"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="160"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="150"/>
     </row>
     <row r="38" spans="1:14" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="161"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
-      <c r="J38" s="157"/>
+      <c r="J38" s="151"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="157"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
     </row>
     <row r="39" spans="1:14" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="163"/>
-      <c r="B39" s="166"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="169"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
       <c r="F39" s="33"/>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
-      <c r="J39" s="156"/>
+      <c r="J39" s="152"/>
       <c r="K39" s="38"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="156"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
     </row>
     <row r="40" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="161"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
-      <c r="J40" s="157"/>
+      <c r="J40" s="151"/>
       <c r="K40" s="37"/>
-      <c r="L40" s="157"/>
-      <c r="M40" s="157"/>
-      <c r="N40" s="158"/>
+      <c r="L40" s="151"/>
+      <c r="M40" s="151"/>
+      <c r="N40" s="149"/>
     </row>
     <row r="41" spans="1:14" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="163"/>
-      <c r="B41" s="166"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
       <c r="F41" s="33"/>
       <c r="G41" s="34"/>
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
-      <c r="J41" s="156"/>
+      <c r="J41" s="152"/>
       <c r="K41" s="38"/>
-      <c r="L41" s="156"/>
-      <c r="M41" s="156"/>
-      <c r="N41" s="160"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="152"/>
+      <c r="N41" s="150"/>
     </row>
     <row r="42" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="161"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="167"/>
+      <c r="A42" s="153"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
       <c r="F42" s="31"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
-      <c r="J42" s="157"/>
+      <c r="J42" s="151"/>
       <c r="K42" s="37"/>
-      <c r="L42" s="157"/>
-      <c r="M42" s="157"/>
-      <c r="N42" s="158"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="149"/>
     </row>
     <row r="43" spans="1:14" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="163"/>
-      <c r="B43" s="166"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="169"/>
+      <c r="A43" s="154"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
       <c r="F43" s="33"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
-      <c r="J43" s="156"/>
+      <c r="J43" s="152"/>
       <c r="K43" s="38"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="156"/>
-      <c r="N43" s="160"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="150"/>
     </row>
     <row r="44" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="161"/>
-      <c r="B44" s="164"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="167"/>
+      <c r="A44" s="153"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
       <c r="F44" s="31"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
-      <c r="J44" s="157"/>
+      <c r="J44" s="151"/>
       <c r="K44" s="37"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="157"/>
-      <c r="N44" s="158"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="149"/>
     </row>
     <row r="45" spans="1:14" ht="79.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="163"/>
-      <c r="B45" s="166"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="169"/>
+      <c r="A45" s="154"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
       <c r="F45" s="33"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
-      <c r="J45" s="156"/>
+      <c r="J45" s="152"/>
       <c r="K45" s="38"/>
-      <c r="L45" s="156"/>
-      <c r="M45" s="156"/>
-      <c r="N45" s="160"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="152"/>
+      <c r="N45" s="150"/>
     </row>
     <row r="46" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="161">
+      <c r="A46" s="153">
         <v>2</v>
       </c>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="167" t="s">
+      <c r="C46" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="167" t="s">
+      <c r="D46" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="167" t="s">
+      <c r="E46" s="157" t="s">
         <v>71</v>
       </c>
       <c r="F46" s="31">
@@ -30263,28 +30209,28 @@
         <v>65</v>
       </c>
       <c r="I46" s="32"/>
-      <c r="J46" s="157" t="s">
+      <c r="J46" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="K46" s="157" t="s">
+      <c r="K46" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="L46" s="154">
+      <c r="L46" s="160">
         <v>43013</v>
       </c>
-      <c r="M46" s="157" t="s">
+      <c r="M46" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="N46" s="158" t="s">
+      <c r="N46" s="149" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="162"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
+      <c r="A47" s="161"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
       <c r="F47" s="35">
         <v>2</v>
       </c>
@@ -30295,18 +30241,18 @@
         <v>67</v>
       </c>
       <c r="I47" s="22"/>
-      <c r="J47" s="155"/>
-      <c r="K47" s="155"/>
-      <c r="L47" s="155"/>
-      <c r="M47" s="155"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="164"/>
+      <c r="L47" s="164"/>
+      <c r="M47" s="164"/>
       <c r="N47" s="159"/>
     </row>
     <row r="48" spans="1:14" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="163"/>
-      <c r="B48" s="166"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
-      <c r="E48" s="169"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
       <c r="F48" s="33">
         <v>3</v>
       </c>
@@ -30315,27 +30261,27 @@
         <v>72</v>
       </c>
       <c r="I48" s="34"/>
-      <c r="J48" s="156"/>
-      <c r="K48" s="156"/>
-      <c r="L48" s="156"/>
-      <c r="M48" s="156"/>
-      <c r="N48" s="160"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="152"/>
+      <c r="L48" s="152"/>
+      <c r="M48" s="152"/>
+      <c r="N48" s="150"/>
     </row>
     <row r="49" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="161">
+      <c r="A49" s="153">
         <v>3</v>
       </c>
-      <c r="B49" s="164" t="s">
+      <c r="B49" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="167" t="s">
+      <c r="C49" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="167" t="s">
+      <c r="D49" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="167" t="s">
-        <v>172</v>
+      <c r="E49" s="157" t="s">
+        <v>171</v>
       </c>
       <c r="F49" s="31">
         <v>1</v>
@@ -30347,28 +30293,28 @@
         <v>65</v>
       </c>
       <c r="I49" s="32"/>
-      <c r="J49" s="157" t="s">
+      <c r="J49" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="K49" s="157" t="s">
+      <c r="K49" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="L49" s="154">
+      <c r="L49" s="160">
         <v>43013</v>
       </c>
-      <c r="M49" s="157" t="s">
+      <c r="M49" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="N49" s="158" t="s">
+      <c r="N49" s="149" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="162"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="168"/>
-      <c r="E50" s="168"/>
+      <c r="A50" s="161"/>
+      <c r="B50" s="162"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="163"/>
       <c r="F50" s="35">
         <v>2</v>
       </c>
@@ -30379,18 +30325,18 @@
         <v>67</v>
       </c>
       <c r="I50" s="22"/>
-      <c r="J50" s="155"/>
-      <c r="K50" s="155"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="155"/>
+      <c r="J50" s="164"/>
+      <c r="K50" s="164"/>
+      <c r="L50" s="164"/>
+      <c r="M50" s="164"/>
       <c r="N50" s="159"/>
     </row>
     <row r="51" spans="1:14" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="162"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="162"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
+      <c r="E51" s="163"/>
       <c r="F51" s="33">
         <v>3</v>
       </c>
@@ -30399,26 +30345,26 @@
         <v>75</v>
       </c>
       <c r="I51" s="22"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="156"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="156"/>
-      <c r="N51" s="160"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="152"/>
+      <c r="L51" s="152"/>
+      <c r="M51" s="152"/>
+      <c r="N51" s="150"/>
     </row>
     <row r="52" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="161">
+      <c r="A52" s="153">
         <v>4</v>
       </c>
-      <c r="B52" s="164" t="s">
+      <c r="B52" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="167" t="s">
+      <c r="C52" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="167" t="s">
+      <c r="D52" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="167" t="s">
+      <c r="E52" s="157" t="s">
         <v>63</v>
       </c>
       <c r="F52" s="31">
@@ -30431,28 +30377,28 @@
         <v>65</v>
       </c>
       <c r="I52" s="32"/>
-      <c r="J52" s="157" t="s">
+      <c r="J52" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="K52" s="157" t="s">
+      <c r="K52" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="L52" s="154">
+      <c r="L52" s="160">
         <v>43013</v>
       </c>
-      <c r="M52" s="157" t="s">
+      <c r="M52" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="N52" s="158" t="s">
+      <c r="N52" s="149" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="163"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
-      <c r="E53" s="169"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
       <c r="F53" s="38">
         <v>2</v>
       </c>
@@ -30463,137 +30409,263 @@
         <v>35</v>
       </c>
       <c r="I53" s="34"/>
-      <c r="J53" s="156"/>
-      <c r="K53" s="156"/>
-      <c r="L53" s="156"/>
-      <c r="M53" s="156"/>
-      <c r="N53" s="160"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="152"/>
+      <c r="L53" s="152"/>
+      <c r="M53" s="152"/>
+      <c r="N53" s="150"/>
     </row>
     <row r="54" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="161"/>
-      <c r="B54" s="164"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
+      <c r="A54" s="153"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
       <c r="F54" s="31"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
-      <c r="J54" s="157"/>
+      <c r="J54" s="151"/>
       <c r="K54" s="37"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="158"/>
+      <c r="L54" s="151"/>
+      <c r="M54" s="151"/>
+      <c r="N54" s="149"/>
     </row>
     <row r="55" spans="1:14" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="163"/>
-      <c r="B55" s="166"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="169"/>
+      <c r="A55" s="154"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="158"/>
       <c r="F55" s="33"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
       <c r="I55" s="34"/>
-      <c r="J55" s="156"/>
+      <c r="J55" s="152"/>
       <c r="K55" s="38"/>
-      <c r="L55" s="156"/>
-      <c r="M55" s="156"/>
-      <c r="N55" s="160"/>
+      <c r="L55" s="152"/>
+      <c r="M55" s="152"/>
+      <c r="N55" s="150"/>
     </row>
     <row r="56" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="161"/>
-      <c r="B56" s="164"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="167"/>
+      <c r="A56" s="153"/>
+      <c r="B56" s="155"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="157"/>
       <c r="F56" s="31"/>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
-      <c r="J56" s="157"/>
+      <c r="J56" s="151"/>
       <c r="K56" s="37"/>
-      <c r="L56" s="157"/>
-      <c r="M56" s="157"/>
-      <c r="N56" s="158"/>
+      <c r="L56" s="151"/>
+      <c r="M56" s="151"/>
+      <c r="N56" s="149"/>
     </row>
     <row r="57" spans="1:14" ht="79.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="163"/>
-      <c r="B57" s="166"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
-      <c r="E57" s="169"/>
+      <c r="A57" s="154"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="158"/>
       <c r="F57" s="33"/>
       <c r="G57" s="34"/>
       <c r="H57" s="34"/>
       <c r="I57" s="34"/>
-      <c r="J57" s="156"/>
+      <c r="J57" s="152"/>
       <c r="K57" s="38"/>
-      <c r="L57" s="156"/>
-      <c r="M57" s="156"/>
-      <c r="N57" s="160"/>
+      <c r="L57" s="152"/>
+      <c r="M57" s="152"/>
+      <c r="N57" s="150"/>
     </row>
     <row r="58" spans="1:14" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="161"/>
-      <c r="B58" s="164"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="167"/>
+      <c r="A58" s="153"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="157"/>
       <c r="F58" s="31"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
-      <c r="J58" s="157"/>
+      <c r="J58" s="151"/>
       <c r="K58" s="37"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="157"/>
-      <c r="N58" s="158"/>
+      <c r="L58" s="151"/>
+      <c r="M58" s="151"/>
+      <c r="N58" s="149"/>
     </row>
     <row r="59" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="163"/>
-      <c r="B59" s="166"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
-      <c r="E59" s="169"/>
+      <c r="A59" s="154"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
       <c r="F59" s="33"/>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
       <c r="I59" s="34"/>
-      <c r="J59" s="156"/>
+      <c r="J59" s="152"/>
       <c r="K59" s="38"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="160"/>
+      <c r="L59" s="152"/>
+      <c r="M59" s="152"/>
+      <c r="N59" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="N46:N48"/>
     <mergeCell ref="N49:N51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
@@ -30614,159 +30686,33 @@
     <mergeCell ref="L49:L51"/>
     <mergeCell ref="M49:M51"/>
     <mergeCell ref="K49:K51"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="M46:M48"/>
-    <mergeCell ref="N46:N48"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
